--- a/Test strategy.xlsx
+++ b/Test strategy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725668BC-DD74-491F-89B9-967DD69558FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC1EE50-F004-4AA5-8285-3F963211274B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12110" yWindow="1510" windowWidth="9600" windowHeight="8000" xr2:uid="{D97501B0-02E1-46B4-AE3B-CB44F660BC13}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{D97501B0-02E1-46B4-AE3B-CB44F660BC13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>day_time</t>
   </si>
@@ -99,16 +99,13 @@
   <si>
     <t>Entering "O" during daytime
 should open the door</t>
-  </si>
-  <si>
-    <t>Waiting for a clock cycle, should NOT reset door or alarm to zero</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,14 +117,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,12 +154,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -487,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8CBFE3-4334-4239-8FAD-C956FDABC4B3}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -742,35 +725,35 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="37" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>0</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -779,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -790,55 +773,35 @@
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4" t="s">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
     </row>
